--- a/Describtion of the dataset.xlsx
+++ b/Describtion of the dataset.xlsx
@@ -507,43 +507,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16940</v>
+        <v>16939</v>
       </c>
       <c r="C2" t="n">
-        <v>16940</v>
+        <v>16939</v>
       </c>
       <c r="D2" t="n">
-        <v>16940</v>
+        <v>16939</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>7533</v>
+        <v>7532</v>
       </c>
       <c r="G2" t="n">
-        <v>7533</v>
+        <v>7532</v>
       </c>
       <c r="H2" t="n">
         <v>6180</v>
       </c>
       <c r="I2" t="n">
-        <v>16940</v>
+        <v>16939</v>
       </c>
       <c r="J2" t="n">
-        <v>16940</v>
+        <v>16939</v>
       </c>
       <c r="K2" t="n">
-        <v>2384</v>
+        <v>2383</v>
       </c>
       <c r="L2" t="n">
-        <v>16655</v>
+        <v>16654</v>
       </c>
       <c r="M2" t="n">
-        <v>16937</v>
+        <v>16936</v>
       </c>
       <c r="N2" t="n">
-        <v>16665</v>
+        <v>16664</v>
       </c>
     </row>
     <row r="3">
@@ -553,43 +553,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.339762691853601</v>
+        <v>5.33978274986717</v>
       </c>
       <c r="C3" t="n">
-        <v>1539980109334.297</v>
+        <v>1539971064173.601</v>
       </c>
       <c r="D3" t="n">
-        <v>1600254108093.123</v>
+        <v>1600248955022.828</v>
       </c>
       <c r="E3" t="n">
         <v>-480</v>
       </c>
       <c r="F3" t="n">
-        <v>97.18253020045135</v>
+        <v>97.19516728624535</v>
       </c>
       <c r="G3" t="n">
-        <v>3.493030665073676</v>
+        <v>3.49336165693043</v>
       </c>
       <c r="H3" t="n">
-        <v>3.626698867313916</v>
+        <v>3.626696925566343</v>
       </c>
       <c r="I3" t="n">
-        <v>0.04781582054309327</v>
+        <v>0.04781864336737706</v>
       </c>
       <c r="J3" t="n">
-        <v>455.452774498229</v>
+        <v>455.4569337032883</v>
       </c>
       <c r="K3" t="n">
-        <v>110.6556208053691</v>
+        <v>110.6651279899287</v>
       </c>
       <c r="L3" t="n">
-        <v>4.338098831079769</v>
+        <v>4.338292003820917</v>
       </c>
       <c r="M3" t="n">
-        <v>0.8429096475172698</v>
+        <v>0.8429121811525744</v>
       </c>
       <c r="N3" t="n">
-        <v>57.95906330574306</v>
+        <v>57.95684049389151</v>
       </c>
     </row>
     <row r="4">
@@ -599,41 +599,41 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.409250396898749</v>
+        <v>0.409254150579047</v>
       </c>
       <c r="C4" t="n">
-        <v>90726959488.61597</v>
+        <v>90721999110.10934</v>
       </c>
       <c r="D4" t="n">
-        <v>81769038202.06934</v>
+        <v>81768720730.32901</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
-        <v>1295.035160187044</v>
+        <v>1295.120673132142</v>
       </c>
       <c r="G4" t="n">
-        <v>2.03130583946015</v>
+        <v>2.031237533439869</v>
       </c>
       <c r="H4" t="n">
-        <v>2.156835471346843</v>
+        <v>2.156834935023604</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2133826508821848</v>
+        <v>0.2133886334177872</v>
       </c>
       <c r="J4" t="n">
-        <v>134.5978166343337</v>
+        <v>134.6007011948323</v>
       </c>
       <c r="K4" t="n">
-        <v>59.67732602570552</v>
+        <v>59.68759549782792</v>
       </c>
       <c r="L4" t="n">
-        <v>5.258431713979564</v>
+        <v>5.258529964896819</v>
       </c>
       <c r="M4" t="n">
-        <v>0.2353535496397594</v>
+        <v>0.2353587619434686</v>
       </c>
       <c r="N4" t="n">
-        <v>33.9071718743055</v>
+        <v>33.90697504284098</v>
       </c>
     </row>
     <row r="5">
@@ -692,7 +692,7 @@
         <v>5.1</v>
       </c>
       <c r="C6" t="n">
-        <v>1462444363675</v>
+        <v>1462442620560</v>
       </c>
       <c r="D6" t="n">
         <v>1552067416040</v>
@@ -719,7 +719,7 @@
         <v>68</v>
       </c>
       <c r="L6" t="n">
-        <v>1.273</v>
+        <v>1.27325</v>
       </c>
       <c r="M6" t="n">
         <v>0.68</v>
@@ -738,10 +738,10 @@
         <v>5.2</v>
       </c>
       <c r="C7" t="n">
-        <v>1540941551435</v>
+        <v>1540912320610</v>
       </c>
       <c r="D7" t="n">
-        <v>1637680262540</v>
+        <v>1637680260040</v>
       </c>
       <c r="E7" t="n">
         <v>-480</v>
@@ -784,10 +784,10 @@
         <v>5.5</v>
       </c>
       <c r="C8" t="n">
-        <v>1618685898461.75</v>
+        <v>1618676801894</v>
       </c>
       <c r="D8" t="n">
-        <v>1658804045582.5</v>
+        <v>1658803746921.5</v>
       </c>
       <c r="E8" t="n">
         <v>-480</v>
@@ -811,7 +811,7 @@
         <v>136</v>
       </c>
       <c r="L8" t="n">
-        <v>5.224</v>
+        <v>5.2245</v>
       </c>
       <c r="M8" t="n">
         <v>0.99</v>
@@ -833,7 +833,7 @@
         <v>1695331332556</v>
       </c>
       <c r="D9" t="n">
-        <v>1695866914040</v>
+        <v>1695877224040</v>
       </c>
       <c r="E9" t="n">
         <v>-480</v>

--- a/Describtion of the dataset.xlsx
+++ b/Describtion of the dataset.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,61 +444,6 @@
           <t>time</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>updated</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>tz</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>felt</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>cdi</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>mmi</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>tsunami</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>sig</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>nst</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>dmin</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>rms</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>gap</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -507,43 +452,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16939</v>
+        <v>16938</v>
       </c>
       <c r="C2" t="n">
-        <v>16939</v>
-      </c>
-      <c r="D2" t="n">
-        <v>16939</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" t="n">
-        <v>7532</v>
-      </c>
-      <c r="G2" t="n">
-        <v>7532</v>
-      </c>
-      <c r="H2" t="n">
-        <v>6180</v>
-      </c>
-      <c r="I2" t="n">
-        <v>16939</v>
-      </c>
-      <c r="J2" t="n">
-        <v>16939</v>
-      </c>
-      <c r="K2" t="n">
-        <v>2383</v>
-      </c>
-      <c r="L2" t="n">
-        <v>16654</v>
-      </c>
-      <c r="M2" t="n">
-        <v>16936</v>
-      </c>
-      <c r="N2" t="n">
-        <v>16664</v>
+        <v>16938</v>
       </c>
     </row>
     <row r="3">
@@ -553,43 +465,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.33978274986717</v>
+        <v>5.339767386940607</v>
       </c>
       <c r="C3" t="n">
-        <v>1539971064173.601</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1600248955022.828</v>
-      </c>
-      <c r="E3" t="n">
-        <v>-480</v>
-      </c>
-      <c r="F3" t="n">
-        <v>97.19516728624535</v>
-      </c>
-      <c r="G3" t="n">
-        <v>3.49336165693043</v>
-      </c>
-      <c r="H3" t="n">
-        <v>3.626696925566343</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.04781864336737706</v>
-      </c>
-      <c r="J3" t="n">
-        <v>455.4569337032883</v>
-      </c>
-      <c r="K3" t="n">
-        <v>110.6651279899287</v>
-      </c>
-      <c r="L3" t="n">
-        <v>4.338292003820917</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.8429121811525744</v>
-      </c>
-      <c r="N3" t="n">
-        <v>57.95684049389151</v>
+        <v>1539962133545.78</v>
       </c>
     </row>
     <row r="4">
@@ -599,41 +478,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.409254150579047</v>
+        <v>0.4092671180552743</v>
       </c>
       <c r="C4" t="n">
-        <v>90721999110.10934</v>
-      </c>
-      <c r="D4" t="n">
-        <v>81768720730.32901</v>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="n">
-        <v>1295.120673132142</v>
-      </c>
-      <c r="G4" t="n">
-        <v>2.031237533439869</v>
-      </c>
-      <c r="H4" t="n">
-        <v>2.156834935023604</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.2133886334177872</v>
-      </c>
-      <c r="J4" t="n">
-        <v>134.6007011948323</v>
-      </c>
-      <c r="K4" t="n">
-        <v>59.68759549782792</v>
-      </c>
-      <c r="L4" t="n">
-        <v>5.258529964896819</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.2353587619434686</v>
-      </c>
-      <c r="N4" t="n">
-        <v>33.90697504284098</v>
+        <v>90717232577.38438</v>
       </c>
     </row>
     <row r="5">
@@ -648,39 +496,6 @@
       <c r="C5" t="n">
         <v>1379944740000</v>
       </c>
-      <c r="D5" t="n">
-        <v>1386623474000</v>
-      </c>
-      <c r="E5" t="n">
-        <v>-480</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>385</v>
-      </c>
-      <c r="K5" t="n">
-        <v>6</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.001376</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="N5" t="n">
-        <v>8</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -692,40 +507,7 @@
         <v>5.1</v>
       </c>
       <c r="C6" t="n">
-        <v>1462442620560</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1552067416040</v>
-      </c>
-      <c r="E6" t="n">
-        <v>-480</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" t="n">
-        <v>2</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>400</v>
-      </c>
-      <c r="K6" t="n">
-        <v>68</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.27325</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="N6" t="n">
-        <v>33</v>
+        <v>1462440877445</v>
       </c>
     </row>
     <row r="7">
@@ -738,40 +520,7 @@
         <v>5.2</v>
       </c>
       <c r="C7" t="n">
-        <v>1540912320610</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1637680260040</v>
-      </c>
-      <c r="E7" t="n">
-        <v>-480</v>
-      </c>
-      <c r="F7" t="n">
-        <v>3</v>
-      </c>
-      <c r="G7" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="H7" t="n">
-        <v>3.84</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>416</v>
-      </c>
-      <c r="K7" t="n">
-        <v>102</v>
-      </c>
-      <c r="L7" t="n">
-        <v>2.645</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="N7" t="n">
-        <v>50</v>
+        <v>1540908140125</v>
       </c>
     </row>
     <row r="8">
@@ -784,40 +533,7 @@
         <v>5.5</v>
       </c>
       <c r="C8" t="n">
-        <v>1618676801894</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1658803746921.5</v>
-      </c>
-      <c r="E8" t="n">
-        <v>-480</v>
-      </c>
-      <c r="F8" t="n">
-        <v>14</v>
-      </c>
-      <c r="G8" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="H8" t="n">
-        <v>5.0225</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>465</v>
-      </c>
-      <c r="K8" t="n">
-        <v>136</v>
-      </c>
-      <c r="L8" t="n">
-        <v>5.2245</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="N8" t="n">
-        <v>74</v>
+        <v>1618661452654.25</v>
       </c>
     </row>
     <row r="9">
@@ -831,39 +547,6 @@
       </c>
       <c r="C9" t="n">
         <v>1695331332556</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1695877224040</v>
-      </c>
-      <c r="E9" t="n">
-        <v>-480</v>
-      </c>
-      <c r="F9" t="n">
-        <v>66712</v>
-      </c>
-      <c r="G9" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="H9" t="n">
-        <v>9.43</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" t="n">
-        <v>2910</v>
-      </c>
-      <c r="K9" t="n">
-        <v>452</v>
-      </c>
-      <c r="L9" t="n">
-        <v>41.046</v>
-      </c>
-      <c r="M9" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="N9" t="n">
-        <v>340</v>
       </c>
     </row>
   </sheetData>
